--- a/NatmiData/natmiOut_TPM/YoungD7/LR-pairs_lrc2p/Nampt-Insr.xlsx
+++ b/NatmiData/natmiOut_TPM/YoungD7/LR-pairs_lrc2p/Nampt-Insr.xlsx
@@ -537,16 +537,16 @@
         <v>1</v>
       </c>
       <c r="G2">
-        <v>18.298577</v>
+        <v>12.47064466666667</v>
       </c>
       <c r="H2">
-        <v>54.895731</v>
+        <v>37.411934</v>
       </c>
       <c r="I2">
-        <v>0.1985220285130613</v>
+        <v>0.183409848855644</v>
       </c>
       <c r="J2">
-        <v>0.1985220285130614</v>
+        <v>0.183409848855644</v>
       </c>
       <c r="K2">
         <v>3</v>
@@ -555,28 +555,28 @@
         <v>1</v>
       </c>
       <c r="M2">
-        <v>13.61877133333333</v>
+        <v>17.10933733333333</v>
       </c>
       <c r="N2">
-        <v>40.856314</v>
+        <v>51.328012</v>
       </c>
       <c r="O2">
-        <v>0.3264056993691277</v>
+        <v>0.3554368716515803</v>
       </c>
       <c r="P2">
-        <v>0.3264056993691277</v>
+        <v>0.3554368716515803</v>
       </c>
       <c r="Q2">
-        <v>249.2041358883926</v>
+        <v>213.3644663661342</v>
       </c>
       <c r="R2">
-        <v>2242.837222995534</v>
+        <v>1920.280197295208</v>
       </c>
       <c r="S2">
-        <v>0.06479872155698368</v>
+        <v>0.06519062290733928</v>
       </c>
       <c r="T2">
-        <v>0.06479872155698371</v>
+        <v>0.06519062290733928</v>
       </c>
     </row>
     <row r="3" spans="1:20">
@@ -599,16 +599,16 @@
         <v>1</v>
       </c>
       <c r="G3">
-        <v>18.298577</v>
+        <v>12.47064466666667</v>
       </c>
       <c r="H3">
-        <v>54.895731</v>
+        <v>37.411934</v>
       </c>
       <c r="I3">
-        <v>0.1985220285130613</v>
+        <v>0.183409848855644</v>
       </c>
       <c r="J3">
-        <v>0.1985220285130614</v>
+        <v>0.183409848855644</v>
       </c>
       <c r="K3">
         <v>3</v>
@@ -623,22 +623,22 @@
         <v>32.782459</v>
       </c>
       <c r="O3">
-        <v>0.2619027613928843</v>
+        <v>0.2270123898818874</v>
       </c>
       <c r="P3">
-        <v>0.2619027613928843</v>
+        <v>0.2270123898818874</v>
       </c>
       <c r="Q3">
-        <v>199.9574500869477</v>
+        <v>136.2727991628562</v>
       </c>
       <c r="R3">
-        <v>1799.617050782529</v>
+        <v>1226.455192465706</v>
       </c>
       <c r="S3">
-        <v>0.05199346746488766</v>
+        <v>0.0416363081165955</v>
       </c>
       <c r="T3">
-        <v>0.05199346746488768</v>
+        <v>0.04163630811659549</v>
       </c>
     </row>
     <row r="4" spans="1:20">
@@ -661,16 +661,16 @@
         <v>1</v>
       </c>
       <c r="G4">
-        <v>18.298577</v>
+        <v>12.47064466666667</v>
       </c>
       <c r="H4">
-        <v>54.895731</v>
+        <v>37.411934</v>
       </c>
       <c r="I4">
-        <v>0.1985220285130613</v>
+        <v>0.183409848855644</v>
       </c>
       <c r="J4">
-        <v>0.1985220285130614</v>
+        <v>0.183409848855644</v>
       </c>
       <c r="K4">
         <v>3</v>
@@ -679,28 +679,28 @@
         <v>1</v>
       </c>
       <c r="M4">
-        <v>9.684515333333332</v>
+        <v>11.616679</v>
       </c>
       <c r="N4">
-        <v>29.053546</v>
+        <v>34.850037</v>
       </c>
       <c r="O4">
-        <v>0.2321120549759609</v>
+        <v>0.2413299803667016</v>
       </c>
       <c r="P4">
-        <v>0.2321120549759609</v>
+        <v>0.2413299803667016</v>
       </c>
       <c r="Q4">
-        <v>177.2128495346806</v>
+        <v>144.8674760157287</v>
       </c>
       <c r="R4">
-        <v>1594.915645812126</v>
+        <v>1303.807284141558</v>
       </c>
       <c r="S4">
-        <v>0.04607935599616297</v>
+        <v>0.04426229522339228</v>
       </c>
       <c r="T4">
-        <v>0.04607935599616298</v>
+        <v>0.04426229522339228</v>
       </c>
     </row>
     <row r="5" spans="1:20">
@@ -723,16 +723,16 @@
         <v>1</v>
       </c>
       <c r="G5">
-        <v>18.298577</v>
+        <v>12.47064466666667</v>
       </c>
       <c r="H5">
-        <v>54.895731</v>
+        <v>37.411934</v>
       </c>
       <c r="I5">
-        <v>0.1985220285130613</v>
+        <v>0.183409848855644</v>
       </c>
       <c r="J5">
-        <v>0.1985220285130614</v>
+        <v>0.183409848855644</v>
       </c>
       <c r="K5">
         <v>3</v>
@@ -741,28 +741,28 @@
         <v>1</v>
       </c>
       <c r="M5">
-        <v>7.492675333333334</v>
+        <v>8.482576333333332</v>
       </c>
       <c r="N5">
-        <v>22.478026</v>
+        <v>25.447729</v>
       </c>
       <c r="O5">
-        <v>0.1795794842620271</v>
+        <v>0.1762207580998305</v>
       </c>
       <c r="P5">
-        <v>0.1795794842620271</v>
+        <v>0.1762207580998305</v>
       </c>
       <c r="Q5">
-        <v>137.1052965230006</v>
+        <v>105.7831953108762</v>
       </c>
       <c r="R5">
-        <v>1233.947668707006</v>
+        <v>952.048757797886</v>
       </c>
       <c r="S5">
-        <v>0.03565048349502699</v>
+        <v>0.03232062260831692</v>
       </c>
       <c r="T5">
-        <v>0.035650483495027</v>
+        <v>0.03232062260831692</v>
       </c>
     </row>
     <row r="6" spans="1:20">
@@ -791,10 +791,10 @@
         <v>36.119581</v>
       </c>
       <c r="I6">
-        <v>0.1306209491802164</v>
+        <v>0.1770741628042856</v>
       </c>
       <c r="J6">
-        <v>0.1306209491802164</v>
+        <v>0.1770741628042856</v>
       </c>
       <c r="K6">
         <v>3</v>
@@ -803,28 +803,28 @@
         <v>1</v>
       </c>
       <c r="M6">
-        <v>13.61877133333333</v>
+        <v>17.10933733333333</v>
       </c>
       <c r="N6">
-        <v>40.856314</v>
+        <v>51.328012</v>
       </c>
       <c r="O6">
-        <v>0.3264056993691277</v>
+        <v>0.3554368716515803</v>
       </c>
       <c r="P6">
-        <v>0.3264056993691277</v>
+        <v>0.3554368716515803</v>
       </c>
       <c r="Q6">
-        <v>163.9681047649371</v>
+        <v>205.9940318892191</v>
       </c>
       <c r="R6">
-        <v>1475.712942884434</v>
+        <v>1853.946287002972</v>
       </c>
       <c r="S6">
-        <v>0.04263542226942781</v>
+        <v>0.06293868647747791</v>
       </c>
       <c r="T6">
-        <v>0.04263542226942782</v>
+        <v>0.06293868647747791</v>
       </c>
     </row>
     <row r="7" spans="1:20">
@@ -853,10 +853,10 @@
         <v>36.119581</v>
       </c>
       <c r="I7">
-        <v>0.1306209491802164</v>
+        <v>0.1770741628042856</v>
       </c>
       <c r="J7">
-        <v>0.1306209491802164</v>
+        <v>0.1770741628042856</v>
       </c>
       <c r="K7">
         <v>3</v>
@@ -871,10 +871,10 @@
         <v>32.782459</v>
       </c>
       <c r="O7">
-        <v>0.2619027613928843</v>
+        <v>0.2270123898818874</v>
       </c>
       <c r="P7">
-        <v>0.2619027613928843</v>
+        <v>0.2270123898818874</v>
       </c>
       <c r="Q7">
         <v>131.5654092477421</v>
@@ -883,10 +883,10 @@
         <v>1184.088683229679</v>
       </c>
       <c r="S7">
-        <v>0.03420998728605826</v>
+        <v>0.0401980288845353</v>
       </c>
       <c r="T7">
-        <v>0.03420998728605827</v>
+        <v>0.0401980288845353</v>
       </c>
     </row>
     <row r="8" spans="1:20">
@@ -915,10 +915,10 @@
         <v>36.119581</v>
       </c>
       <c r="I8">
-        <v>0.1306209491802164</v>
+        <v>0.1770741628042856</v>
       </c>
       <c r="J8">
-        <v>0.1306209491802164</v>
+        <v>0.1770741628042856</v>
       </c>
       <c r="K8">
         <v>3</v>
@@ -927,28 +927,28 @@
         <v>1</v>
       </c>
       <c r="M8">
-        <v>9.684515333333332</v>
+        <v>11.616679</v>
       </c>
       <c r="N8">
-        <v>29.053546</v>
+        <v>34.850037</v>
       </c>
       <c r="O8">
-        <v>0.2321120549759609</v>
+        <v>0.2413299803667016</v>
       </c>
       <c r="P8">
-        <v>0.2321120549759609</v>
+        <v>0.2413299803667016</v>
       </c>
       <c r="Q8">
-        <v>116.6002120093584</v>
+        <v>139.8631926971663</v>
       </c>
       <c r="R8">
-        <v>1049.401908084226</v>
+        <v>1258.768734274497</v>
       </c>
       <c r="S8">
-        <v>0.03031869693713058</v>
+        <v>0.04273330423300838</v>
       </c>
       <c r="T8">
-        <v>0.03031869693713058</v>
+        <v>0.04273330423300838</v>
       </c>
     </row>
     <row r="9" spans="1:20">
@@ -977,10 +977,10 @@
         <v>36.119581</v>
       </c>
       <c r="I9">
-        <v>0.1306209491802164</v>
+        <v>0.1770741628042856</v>
       </c>
       <c r="J9">
-        <v>0.1306209491802164</v>
+        <v>0.1770741628042856</v>
       </c>
       <c r="K9">
         <v>3</v>
@@ -989,28 +989,28 @@
         <v>1</v>
       </c>
       <c r="M9">
-        <v>7.492675333333334</v>
+        <v>8.482576333333332</v>
       </c>
       <c r="N9">
-        <v>22.478026</v>
+        <v>25.447729</v>
       </c>
       <c r="O9">
-        <v>0.1795794842620271</v>
+        <v>0.1762207580998305</v>
       </c>
       <c r="P9">
-        <v>0.1795794842620271</v>
+        <v>0.1762207580998305</v>
       </c>
       <c r="Q9">
-        <v>90.2107645363451</v>
+        <v>102.1290343201721</v>
       </c>
       <c r="R9">
-        <v>811.896880827106</v>
+        <v>919.1613088815488</v>
       </c>
       <c r="S9">
-        <v>0.0234568426875997</v>
+        <v>0.03120414320926403</v>
       </c>
       <c r="T9">
-        <v>0.02345684268759971</v>
+        <v>0.03120414320926403</v>
       </c>
     </row>
     <row r="10" spans="1:20">
@@ -1033,16 +1033,16 @@
         <v>1</v>
       </c>
       <c r="G10">
-        <v>6.888234666666667</v>
+        <v>7.218786333333333</v>
       </c>
       <c r="H10">
-        <v>20.664704</v>
+        <v>21.656359</v>
       </c>
       <c r="I10">
-        <v>0.07473074648923014</v>
+        <v>0.1061690510561032</v>
       </c>
       <c r="J10">
-        <v>0.07473074648923016</v>
+        <v>0.1061690510561032</v>
       </c>
       <c r="K10">
         <v>3</v>
@@ -1051,28 +1051,28 @@
         <v>1</v>
       </c>
       <c r="M10">
-        <v>13.61877133333333</v>
+        <v>17.10933733333333</v>
       </c>
       <c r="N10">
-        <v>40.856314</v>
+        <v>51.328012</v>
       </c>
       <c r="O10">
-        <v>0.3264056993691277</v>
+        <v>0.3554368716515803</v>
       </c>
       <c r="P10">
-        <v>0.3264056993691277</v>
+        <v>0.3554368716515803</v>
       </c>
       <c r="Q10">
-        <v>93.80929281567289</v>
+        <v>123.5086505142564</v>
       </c>
       <c r="R10">
-        <v>844.283635341056</v>
+        <v>1111.577854628308</v>
       </c>
       <c r="S10">
-        <v>0.02439254157219415</v>
+        <v>0.03773639537359825</v>
       </c>
       <c r="T10">
-        <v>0.02439254157219416</v>
+        <v>0.03773639537359824</v>
       </c>
     </row>
     <row r="11" spans="1:20">
@@ -1095,16 +1095,16 @@
         <v>1</v>
       </c>
       <c r="G11">
-        <v>6.888234666666667</v>
+        <v>7.218786333333333</v>
       </c>
       <c r="H11">
-        <v>20.664704</v>
+        <v>21.656359</v>
       </c>
       <c r="I11">
-        <v>0.07473074648923014</v>
+        <v>0.1061690510561032</v>
       </c>
       <c r="J11">
-        <v>0.07473074648923016</v>
+        <v>0.1061690510561032</v>
       </c>
       <c r="K11">
         <v>3</v>
@@ -1119,22 +1119,22 @@
         <v>32.782459</v>
       </c>
       <c r="O11">
-        <v>0.2619027613928843</v>
+        <v>0.2270123898818874</v>
       </c>
       <c r="P11">
-        <v>0.2619027613928843</v>
+        <v>0.2270123898818874</v>
       </c>
       <c r="Q11">
-        <v>75.2710901807929</v>
+        <v>78.88318900075345</v>
       </c>
       <c r="R11">
-        <v>677.4398116271361</v>
+        <v>709.948701006781</v>
       </c>
       <c r="S11">
-        <v>0.01957218886648096</v>
+        <v>0.02410169001173812</v>
       </c>
       <c r="T11">
-        <v>0.01957218886648097</v>
+        <v>0.02410169001173812</v>
       </c>
     </row>
     <row r="12" spans="1:20">
@@ -1157,16 +1157,16 @@
         <v>1</v>
       </c>
       <c r="G12">
-        <v>6.888234666666667</v>
+        <v>7.218786333333333</v>
       </c>
       <c r="H12">
-        <v>20.664704</v>
+        <v>21.656359</v>
       </c>
       <c r="I12">
-        <v>0.07473074648923014</v>
+        <v>0.1061690510561032</v>
       </c>
       <c r="J12">
-        <v>0.07473074648923016</v>
+        <v>0.1061690510561032</v>
       </c>
       <c r="K12">
         <v>3</v>
@@ -1175,28 +1175,28 @@
         <v>1</v>
       </c>
       <c r="M12">
-        <v>9.684515333333332</v>
+        <v>11.616679</v>
       </c>
       <c r="N12">
-        <v>29.053546</v>
+        <v>34.850037</v>
       </c>
       <c r="O12">
-        <v>0.2321120549759609</v>
+        <v>0.2413299803667016</v>
       </c>
       <c r="P12">
-        <v>0.2321120549759609</v>
+        <v>0.2413299803667016</v>
       </c>
       <c r="Q12">
-        <v>66.70921424893154</v>
+        <v>83.85832360392033</v>
       </c>
       <c r="R12">
-        <v>600.382928240384</v>
+        <v>754.7249124352829</v>
       </c>
       <c r="S12">
-        <v>0.01734590713750279</v>
+        <v>0.02562177500692074</v>
       </c>
       <c r="T12">
-        <v>0.01734590713750279</v>
+        <v>0.02562177500692074</v>
       </c>
     </row>
     <row r="13" spans="1:20">
@@ -1219,16 +1219,16 @@
         <v>1</v>
       </c>
       <c r="G13">
-        <v>6.888234666666667</v>
+        <v>7.218786333333333</v>
       </c>
       <c r="H13">
-        <v>20.664704</v>
+        <v>21.656359</v>
       </c>
       <c r="I13">
-        <v>0.07473074648923014</v>
+        <v>0.1061690510561032</v>
       </c>
       <c r="J13">
-        <v>0.07473074648923016</v>
+        <v>0.1061690510561032</v>
       </c>
       <c r="K13">
         <v>3</v>
@@ -1237,28 +1237,28 @@
         <v>1</v>
       </c>
       <c r="M13">
-        <v>7.492675333333334</v>
+        <v>8.482576333333332</v>
       </c>
       <c r="N13">
-        <v>22.478026</v>
+        <v>25.447729</v>
       </c>
       <c r="O13">
-        <v>0.1795794842620271</v>
+        <v>0.1762207580998305</v>
       </c>
       <c r="P13">
-        <v>0.1795794842620271</v>
+        <v>0.1762207580998305</v>
       </c>
       <c r="Q13">
-        <v>51.61130597714489</v>
+        <v>61.23390610652343</v>
       </c>
       <c r="R13">
-        <v>464.501753794304</v>
+        <v>551.105154958711</v>
       </c>
       <c r="S13">
-        <v>0.01342010891305224</v>
+        <v>0.01870919066384612</v>
       </c>
       <c r="T13">
-        <v>0.01342010891305224</v>
+        <v>0.01870919066384612</v>
       </c>
     </row>
     <row r="14" spans="1:20">
@@ -1281,16 +1281,16 @@
         <v>1</v>
       </c>
       <c r="G14">
-        <v>54.94736600000001</v>
+        <v>36.26402933333333</v>
       </c>
       <c r="H14">
-        <v>164.842098</v>
+        <v>108.792088</v>
       </c>
       <c r="I14">
-        <v>0.5961262758174921</v>
+        <v>0.5333469372839672</v>
       </c>
       <c r="J14">
-        <v>0.5961262758174922</v>
+        <v>0.5333469372839672</v>
       </c>
       <c r="K14">
         <v>3</v>
@@ -1299,28 +1299,28 @@
         <v>1</v>
       </c>
       <c r="M14">
-        <v>13.61877133333333</v>
+        <v>17.10933733333333</v>
       </c>
       <c r="N14">
-        <v>40.856314</v>
+        <v>51.328012</v>
       </c>
       <c r="O14">
-        <v>0.3264056993691277</v>
+        <v>0.3554368716515803</v>
       </c>
       <c r="P14">
-        <v>0.3264056993691277</v>
+        <v>0.3554368716515803</v>
       </c>
       <c r="Q14">
-        <v>748.3156129229748</v>
+        <v>620.4535109298951</v>
       </c>
       <c r="R14">
-        <v>6734.840516306773</v>
+        <v>5584.081598369056</v>
       </c>
       <c r="S14">
-        <v>0.194579013970522</v>
+        <v>0.1895711668931649</v>
       </c>
       <c r="T14">
-        <v>0.1945790139705221</v>
+        <v>0.1895711668931649</v>
       </c>
     </row>
     <row r="15" spans="1:20">
@@ -1343,16 +1343,16 @@
         <v>1</v>
       </c>
       <c r="G15">
-        <v>54.94736600000001</v>
+        <v>36.26402933333333</v>
       </c>
       <c r="H15">
-        <v>164.842098</v>
+        <v>108.792088</v>
       </c>
       <c r="I15">
-        <v>0.5961262758174921</v>
+        <v>0.5333469372839672</v>
       </c>
       <c r="J15">
-        <v>0.5961262758174922</v>
+        <v>0.5333469372839672</v>
       </c>
       <c r="K15">
         <v>3</v>
@@ -1367,22 +1367,22 @@
         <v>32.782459</v>
       </c>
       <c r="O15">
-        <v>0.2619027613928843</v>
+        <v>0.2270123898818874</v>
       </c>
       <c r="P15">
-        <v>0.2619027613928843</v>
+        <v>0.2270123898818874</v>
       </c>
       <c r="Q15">
-        <v>600.4365910176648</v>
+        <v>396.2746849315992</v>
       </c>
       <c r="R15">
-        <v>5403.929319158983</v>
+        <v>3566.472164384393</v>
       </c>
       <c r="S15">
-        <v>0.1561271177754573</v>
+        <v>0.1210763628690185</v>
       </c>
       <c r="T15">
-        <v>0.1561271177754574</v>
+        <v>0.1210763628690185</v>
       </c>
     </row>
     <row r="16" spans="1:20">
@@ -1405,16 +1405,16 @@
         <v>1</v>
       </c>
       <c r="G16">
-        <v>54.94736600000001</v>
+        <v>36.26402933333333</v>
       </c>
       <c r="H16">
-        <v>164.842098</v>
+        <v>108.792088</v>
       </c>
       <c r="I16">
-        <v>0.5961262758174921</v>
+        <v>0.5333469372839672</v>
       </c>
       <c r="J16">
-        <v>0.5961262758174922</v>
+        <v>0.5333469372839672</v>
       </c>
       <c r="K16">
         <v>3</v>
@@ -1423,28 +1423,28 @@
         <v>1</v>
       </c>
       <c r="M16">
-        <v>9.684515333333332</v>
+        <v>11.616679</v>
       </c>
       <c r="N16">
-        <v>29.053546</v>
+        <v>34.850037</v>
       </c>
       <c r="O16">
-        <v>0.2321120549759609</v>
+        <v>0.2413299803667016</v>
       </c>
       <c r="P16">
-        <v>0.2321120549759609</v>
+        <v>0.2413299803667016</v>
       </c>
       <c r="Q16">
-        <v>532.1386085532787</v>
+        <v>421.2675880119173</v>
       </c>
       <c r="R16">
-        <v>4789.247476979508</v>
+        <v>3791.408292107256</v>
       </c>
       <c r="S16">
-        <v>0.1383680949051646</v>
+        <v>0.1287126059033803</v>
       </c>
       <c r="T16">
-        <v>0.1383680949051646</v>
+        <v>0.1287126059033803</v>
       </c>
     </row>
     <row r="17" spans="1:20">
@@ -1467,16 +1467,16 @@
         <v>1</v>
       </c>
       <c r="G17">
-        <v>54.94736600000001</v>
+        <v>36.26402933333333</v>
       </c>
       <c r="H17">
-        <v>164.842098</v>
+        <v>108.792088</v>
       </c>
       <c r="I17">
-        <v>0.5961262758174921</v>
+        <v>0.5333469372839672</v>
       </c>
       <c r="J17">
-        <v>0.5961262758174922</v>
+        <v>0.5333469372839672</v>
       </c>
       <c r="K17">
         <v>3</v>
@@ -1485,28 +1485,28 @@
         <v>1</v>
       </c>
       <c r="M17">
-        <v>7.492675333333334</v>
+        <v>8.482576333333332</v>
       </c>
       <c r="N17">
-        <v>22.478026</v>
+        <v>25.447729</v>
       </c>
       <c r="O17">
-        <v>0.1795794842620271</v>
+        <v>0.1762207580998305</v>
       </c>
       <c r="P17">
-        <v>0.1795794842620271</v>
+        <v>0.1762207580998305</v>
       </c>
       <c r="Q17">
-        <v>411.7027738598388</v>
+        <v>307.6123969742391</v>
       </c>
       <c r="R17">
-        <v>3705.324964738548</v>
+        <v>2768.511572768152</v>
       </c>
       <c r="S17">
-        <v>0.1070520491663482</v>
+        <v>0.09398680161840346</v>
       </c>
       <c r="T17">
-        <v>0.1070520491663482</v>
+        <v>0.09398680161840348</v>
       </c>
     </row>
   </sheetData>
